--- a/caseNPCC.xlsx
+++ b/caseNPCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\DOE2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998C702D-0540-41EC-AE42-831993E71D35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5386078-AB54-467F-A829-874ECDEEECC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3750" windowWidth="21600" windowHeight="11205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="879">
   <si>
     <t>idx</t>
   </si>
@@ -2673,9 +2673,6 @@
   </si>
   <si>
     <t>[1, 3]</t>
-  </si>
-  <si>
-    <t>PV 38</t>
   </si>
 </sst>
 </file>
@@ -3120,9 +3117,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8922,7 +8919,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9506,35 +9503,35 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1">
+    <row r="19" spans="1:10" s="4" customFormat="1">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>36</v>
       </c>
-      <c r="F19">
-        <v>230</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="4">
+        <v>230</v>
+      </c>
+      <c r="G19" s="4">
         <v>0.09</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>0.05</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>1.2</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="4">
         <v>0.8</v>
       </c>
     </row>
@@ -11627,9 +11624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47:T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12106,62 +12103,62 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="1">
+    <row r="9" spans="1:19" s="4" customFormat="1">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>100</v>
       </c>
-      <c r="F9">
-        <v>230</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="4">
+        <v>230</v>
+      </c>
+      <c r="G9" s="4">
         <v>36</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>36</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>5.54</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>2.55044</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>6.54</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
         <v>3</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <v>-3</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="4">
         <v>0.98</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="4">
         <v>1.4</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="4">
         <v>0.6</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="4">
         <v>0.01</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="4">
         <v>0.3</v>
       </c>
     </row>
@@ -14349,63 +14346,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" s="4" customFormat="1">
-      <c r="A47" s="5">
-        <v>45</v>
-      </c>
-      <c r="B47" s="4">
-        <v>47</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="E47" s="4">
-        <v>100</v>
-      </c>
-      <c r="F47" s="4">
-        <v>230</v>
-      </c>
-      <c r="G47" s="4">
-        <v>38</v>
-      </c>
-      <c r="H47" s="4">
-        <v>38</v>
-      </c>
-      <c r="I47" s="4">
-        <v>5.03</v>
-      </c>
-      <c r="J47" s="4">
-        <v>1.9077999999999999</v>
-      </c>
-      <c r="K47" s="4">
-        <v>6.03</v>
-      </c>
-      <c r="L47" s="4">
-        <v>0</v>
-      </c>
-      <c r="M47" s="4">
-        <v>3</v>
-      </c>
-      <c r="N47" s="4">
-        <v>-3</v>
-      </c>
-      <c r="O47" s="4">
-        <v>1.0065999999999999</v>
-      </c>
-      <c r="P47" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="R47" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="S47" s="4">
-        <v>0.3</v>
-      </c>
+      <c r="A47" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
